--- a/cypress/fixtures/expectedResults/IM/COP AR 12 15 22.xlsx
+++ b/cypress/fixtures/expectedResults/IM/COP AR 12 15 22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreis/MyOwnProject/api-test-cypress/cypress/fixtures/expectedResults/IM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE6ECF7-A5AE-944F-B2AA-A8976D94B706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8DE68B-1E98-3243-AD43-6EFE47057A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9720" yWindow="-27420" windowWidth="33980" windowHeight="17580" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="348">
   <si>
     <t>CRITERIA</t>
   </si>
@@ -1105,9 +1105,6 @@
     <t>148913/FAQ%208%20-%20COP%20Cat%20Limit%20And%20Sublimits.pdf</t>
   </si>
   <si>
-    <t>167932/FAQ%209%20-%20COP%202011%20FL%20State%20Exceptions.pdf</t>
-  </si>
-  <si>
     <t>155888/FAQ%2010%20-%20COP%20Blkt%20Limit%20and%20Sched%20Loc%20Cov%20-%20Stock%20and%20Coinsurance.pdf</t>
   </si>
   <si>
@@ -1133,9 +1130,6 @@
   </si>
   <si>
     <t>COP FAQ 08 - Catastrophe Limit And Sublimits</t>
-  </si>
-  <si>
-    <t>COP FAQ 09 - Florida State Exception Pages Rev 3.5</t>
   </si>
   <si>
     <t>COP FAQ 02 - Blanket Limit And Blanket Locations</t>
@@ -1656,10 +1650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674E778E-6EE7-48DC-9458-6E54369E644F}">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A129" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138:A141"/>
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1718,7 +1712,7 @@
     </row>
     <row r="9" spans="1:6" ht="79" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>4</v>
@@ -1738,7 +1732,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>11</v>
@@ -1758,7 +1752,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>12</v>
@@ -1778,7 +1772,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>13</v>
@@ -1798,7 +1792,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>14</v>
@@ -1818,7 +1812,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>15</v>
@@ -1838,7 +1832,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>16</v>
@@ -1858,7 +1852,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>17</v>
@@ -1878,7 +1872,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>18</v>
@@ -1898,7 +1892,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>19</v>
@@ -1918,7 +1912,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>20</v>
@@ -1938,7 +1932,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>21</v>
@@ -1958,7 +1952,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>22</v>
@@ -1978,7 +1972,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>23</v>
@@ -1998,7 +1992,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>24</v>
@@ -2018,7 +2012,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>25</v>
@@ -2038,7 +2032,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>26</v>
@@ -2058,7 +2052,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>27</v>
@@ -2078,7 +2072,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>28</v>
@@ -2098,7 +2092,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>26</v>
@@ -2118,7 +2112,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>29</v>
@@ -2138,7 +2132,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>30</v>
@@ -2158,7 +2152,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>31</v>
@@ -2178,7 +2172,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>32</v>
@@ -2198,7 +2192,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>33</v>
@@ -2218,7 +2212,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>33</v>
@@ -2238,7 +2232,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>34</v>
@@ -2258,7 +2252,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>35</v>
@@ -2278,7 +2272,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>36</v>
@@ -2298,7 +2292,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>37</v>
@@ -2318,7 +2312,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>38</v>
@@ -2338,7 +2332,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>39</v>
@@ -2358,7 +2352,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>40</v>
@@ -2378,7 +2372,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>38</v>
@@ -2398,7 +2392,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>41</v>
@@ -2418,7 +2412,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>42</v>
@@ -2438,7 +2432,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>43</v>
@@ -2458,7 +2452,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>44</v>
@@ -2478,7 +2472,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>45</v>
@@ -2498,7 +2492,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>46</v>
@@ -2518,7 +2512,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
@@ -2538,7 +2532,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>48</v>
@@ -2558,7 +2552,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>49</v>
@@ -2578,7 +2572,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>50</v>
@@ -2598,7 +2592,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>51</v>
@@ -2618,7 +2612,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>52</v>
@@ -2638,7 +2632,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>53</v>
@@ -2658,7 +2652,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>54</v>
@@ -2678,7 +2672,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>55</v>
@@ -2698,7 +2692,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>56</v>
@@ -2718,7 +2712,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>57</v>
@@ -2738,7 +2732,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>58</v>
@@ -2758,7 +2752,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>59</v>
@@ -2778,7 +2772,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>60</v>
@@ -2798,7 +2792,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>61</v>
@@ -2818,7 +2812,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>62</v>
@@ -2838,7 +2832,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>63</v>
@@ -2858,7 +2852,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>64</v>
@@ -2878,7 +2872,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>65</v>
@@ -2898,7 +2892,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>66</v>
@@ -2918,7 +2912,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>67</v>
@@ -2938,7 +2932,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>68</v>
@@ -2958,7 +2952,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>69</v>
@@ -2978,7 +2972,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>70</v>
@@ -2998,7 +2992,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>71</v>
@@ -3018,7 +3012,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>72</v>
@@ -3038,7 +3032,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>73</v>
@@ -3058,7 +3052,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>74</v>
@@ -3078,7 +3072,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>75</v>
@@ -3098,7 +3092,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>76</v>
@@ -3118,7 +3112,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>77</v>
@@ -3138,7 +3132,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>78</v>
@@ -3158,7 +3152,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>79</v>
@@ -3178,7 +3172,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>80</v>
@@ -3198,7 +3192,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>81</v>
@@ -3218,7 +3212,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>82</v>
@@ -3238,7 +3232,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>83</v>
@@ -3258,7 +3252,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>84</v>
@@ -3278,7 +3272,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>85</v>
@@ -3298,7 +3292,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>86</v>
@@ -3318,7 +3312,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>87</v>
@@ -3338,7 +3332,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>88</v>
@@ -3358,7 +3352,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>89</v>
@@ -3378,7 +3372,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>90</v>
@@ -3398,7 +3392,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>91</v>
@@ -3418,7 +3412,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>92</v>
@@ -3438,7 +3432,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>93</v>
@@ -3458,7 +3452,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>94</v>
@@ -3478,7 +3472,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>95</v>
@@ -3498,7 +3492,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>96</v>
@@ -3518,7 +3512,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>97</v>
@@ -3538,7 +3532,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>98</v>
@@ -3558,7 +3552,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>99</v>
@@ -3578,7 +3572,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>100</v>
@@ -3598,7 +3592,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>101</v>
@@ -3618,7 +3612,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>102</v>
@@ -3638,7 +3632,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>103</v>
@@ -3658,7 +3652,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>104</v>
@@ -3678,7 +3672,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>105</v>
@@ -3698,7 +3692,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>106</v>
@@ -3718,7 +3712,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>107</v>
@@ -3738,7 +3732,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>108</v>
@@ -3758,7 +3752,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>109</v>
@@ -3778,7 +3772,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>110</v>
@@ -3798,7 +3792,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>111</v>
@@ -3818,7 +3812,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>112</v>
@@ -3838,7 +3832,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>113</v>
@@ -3858,7 +3852,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>114</v>
@@ -3878,7 +3872,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>115</v>
@@ -3898,7 +3892,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>116</v>
@@ -3918,7 +3912,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>117</v>
@@ -3938,7 +3932,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>118</v>
@@ -3958,7 +3952,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>119</v>
@@ -3978,7 +3972,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>120</v>
@@ -3998,7 +3992,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>121</v>
@@ -4018,7 +4012,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>122</v>
@@ -4038,7 +4032,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>123</v>
@@ -4058,7 +4052,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>124</v>
@@ -4078,7 +4072,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>125</v>
@@ -4098,7 +4092,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>126</v>
@@ -4118,7 +4112,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>127</v>
@@ -4138,7 +4132,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>128</v>
@@ -4158,7 +4152,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>284</v>
@@ -4173,7 +4167,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>285</v>
@@ -4188,7 +4182,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>286</v>
@@ -4203,7 +4197,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>287</v>
@@ -4218,10 +4212,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>296</v>
@@ -4233,7 +4227,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>295</v>
@@ -4248,7 +4242,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>298</v>
@@ -4263,7 +4257,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>299</v>
@@ -4280,7 +4274,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>300</v>
@@ -4297,7 +4291,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B140" s="9" t="s">
         <v>301</v>
@@ -4314,7 +4308,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>302</v>
@@ -4330,7 +4324,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>310</v>
@@ -4345,7 +4339,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>311</v>
@@ -4360,7 +4354,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>309</v>
@@ -4375,10 +4369,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C145" s="9" t="s">
         <v>320</v>
@@ -4390,10 +4384,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C146" s="9" t="s">
         <v>321</v>
@@ -4405,10 +4399,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C147" s="9" t="s">
         <v>322</v>
@@ -4420,10 +4414,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C148" s="9" t="s">
         <v>323</v>
@@ -4435,10 +4429,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>324</v>
@@ -4450,10 +4444,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C150" s="9" t="s">
         <v>326</v>
@@ -4465,10 +4459,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C151" s="9" t="s">
         <v>327</v>
@@ -4480,10 +4474,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C152" s="9" t="s">
         <v>328</v>
@@ -4493,33 +4487,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="C153" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C153" s="11" t="s">
         <v>329</v>
       </c>
       <c r="F153"/>
       <c r="G153" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="F154"/>
-      <c r="G154" s="10" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4674,7 +4653,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
@@ -4692,7 +4671,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
